--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H2">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I2">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J2">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.2874215044277</v>
+        <v>16.60495066666667</v>
       </c>
       <c r="N2">
-        <v>15.2874215044277</v>
+        <v>49.814852</v>
       </c>
       <c r="O2">
-        <v>0.4385303842103676</v>
+        <v>0.4330603147186406</v>
       </c>
       <c r="P2">
-        <v>0.4385303842103676</v>
+        <v>0.5197056776409935</v>
       </c>
       <c r="Q2">
-        <v>297.1763269443633</v>
+        <v>339.5256107289013</v>
       </c>
       <c r="R2">
-        <v>297.1763269443633</v>
+        <v>3055.730496560112</v>
       </c>
       <c r="S2">
-        <v>0.3813747067258894</v>
+        <v>0.3767254733785446</v>
       </c>
       <c r="T2">
-        <v>0.3813747067258894</v>
+        <v>0.4558124866544165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H3">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I3">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J3">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.710339134319327</v>
+        <v>0.7472513333333333</v>
       </c>
       <c r="N3">
-        <v>0.710339134319327</v>
+        <v>2.241754</v>
       </c>
       <c r="O3">
-        <v>0.02037657517341908</v>
+        <v>0.01948845883877707</v>
       </c>
       <c r="P3">
-        <v>0.02037657517341908</v>
+        <v>0.02338764916283215</v>
       </c>
       <c r="Q3">
-        <v>13.80847481445557</v>
+        <v>15.27923632000267</v>
       </c>
       <c r="R3">
-        <v>13.80847481445557</v>
+        <v>137.513126880024</v>
       </c>
       <c r="S3">
-        <v>0.01772080261857718</v>
+        <v>0.01695329410691104</v>
       </c>
       <c r="T3">
-        <v>0.01772080261857718</v>
+        <v>0.02051234569978216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H4">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I4">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J4">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.264156984886342</v>
+        <v>0.5008306666666666</v>
       </c>
       <c r="N4">
-        <v>0.264156984886342</v>
+        <v>1.502492</v>
       </c>
       <c r="O4">
-        <v>0.007577527972294661</v>
+        <v>0.01306176034372721</v>
       </c>
       <c r="P4">
-        <v>0.007577527972294661</v>
+        <v>0.01567511679067463</v>
       </c>
       <c r="Q4">
-        <v>5.135019171315743</v>
+        <v>10.24061085066133</v>
       </c>
       <c r="R4">
-        <v>5.135019171315743</v>
+        <v>92.165497655952</v>
       </c>
       <c r="S4">
-        <v>0.006589913976758324</v>
+        <v>0.01136261550967724</v>
       </c>
       <c r="T4">
-        <v>0.006589913976758324</v>
+        <v>0.01374800059023296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H5">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I5">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J5">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.865130465246475</v>
+        <v>1.312462666666667</v>
       </c>
       <c r="N5">
-        <v>0.865130465246475</v>
+        <v>3.937388</v>
       </c>
       <c r="O5">
-        <v>0.02481687282624798</v>
+        <v>0.034229279381366</v>
       </c>
       <c r="P5">
-        <v>0.02481687282624798</v>
+        <v>0.04107776730272161</v>
       </c>
       <c r="Q5">
-        <v>16.81750541876226</v>
+        <v>26.83625488592533</v>
       </c>
       <c r="R5">
-        <v>16.81750541876226</v>
+        <v>241.526293973328</v>
       </c>
       <c r="S5">
-        <v>0.02158237590083104</v>
+        <v>0.02977654853165078</v>
       </c>
       <c r="T5">
-        <v>0.02158237590083104</v>
+        <v>0.03602762114405678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H6">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I6">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J6">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.7335272665878</v>
+        <v>19.1777795</v>
       </c>
       <c r="N6">
-        <v>17.7335272665878</v>
+        <v>38.355559</v>
       </c>
       <c r="O6">
-        <v>0.5086986398176706</v>
+        <v>0.5001601867174891</v>
       </c>
       <c r="P6">
-        <v>0.5086986398176706</v>
+        <v>0.4001537891027781</v>
       </c>
       <c r="Q6">
-        <v>344.7268393382056</v>
+        <v>392.132890236934</v>
       </c>
       <c r="R6">
-        <v>344.7268393382056</v>
+        <v>2352.797341421604</v>
       </c>
       <c r="S6">
-        <v>0.4423976115626616</v>
+        <v>0.4350966290426908</v>
       </c>
       <c r="T6">
-        <v>0.4423976115626616</v>
+        <v>0.3509584395595551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.35469334796926</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H7">
-        <v>2.35469334796926</v>
+        <v>7.449742</v>
       </c>
       <c r="I7">
-        <v>0.105343218655323</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J7">
-        <v>0.105343218655323</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2874215044277</v>
+        <v>16.60495066666667</v>
       </c>
       <c r="N7">
-        <v>15.2874215044277</v>
+        <v>49.814852</v>
       </c>
       <c r="O7">
-        <v>0.4385303842103676</v>
+        <v>0.4330603147186406</v>
       </c>
       <c r="P7">
-        <v>0.4385303842103676</v>
+        <v>0.5197056776409935</v>
       </c>
       <c r="Q7">
-        <v>35.99718972407813</v>
+        <v>41.23419946313156</v>
       </c>
       <c r="R7">
-        <v>35.99718972407813</v>
+        <v>371.107795168184</v>
       </c>
       <c r="S7">
-        <v>0.04619620215087555</v>
+        <v>0.04575199284314629</v>
       </c>
       <c r="T7">
-        <v>0.04619620215087555</v>
+        <v>0.05535683435527745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.35469334796926</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H8">
-        <v>2.35469334796926</v>
+        <v>7.449742</v>
       </c>
       <c r="I8">
-        <v>0.105343218655323</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J8">
-        <v>0.105343218655323</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.710339134319327</v>
+        <v>0.7472513333333333</v>
       </c>
       <c r="N8">
-        <v>0.710339134319327</v>
+        <v>2.241754</v>
       </c>
       <c r="O8">
-        <v>0.02037657517341908</v>
+        <v>0.01948845883877707</v>
       </c>
       <c r="P8">
-        <v>0.02037657517341908</v>
+        <v>0.02338764916283215</v>
       </c>
       <c r="Q8">
-        <v>1.672630834383962</v>
+        <v>1.855609880829778</v>
       </c>
       <c r="R8">
-        <v>1.672630834383962</v>
+        <v>16.700488927468</v>
       </c>
       <c r="S8">
-        <v>0.002146534013940112</v>
+        <v>0.002058918351581062</v>
       </c>
       <c r="T8">
-        <v>0.002146534013940112</v>
+        <v>0.002491152735800171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.35469334796926</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H9">
-        <v>2.35469334796926</v>
+        <v>7.449742</v>
       </c>
       <c r="I9">
-        <v>0.105343218655323</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J9">
-        <v>0.105343218655323</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.264156984886342</v>
+        <v>0.5008306666666666</v>
       </c>
       <c r="N9">
-        <v>0.264156984886342</v>
+        <v>1.502492</v>
       </c>
       <c r="O9">
-        <v>0.007577527972294661</v>
+        <v>0.01306176034372721</v>
       </c>
       <c r="P9">
-        <v>0.007577527972294661</v>
+        <v>0.01567511679067463</v>
       </c>
       <c r="Q9">
-        <v>0.6220086951314858</v>
+        <v>1.243686417451556</v>
       </c>
       <c r="R9">
-        <v>0.6220086951314858</v>
+        <v>11.193177757064</v>
       </c>
       <c r="S9">
-        <v>0.0007982411860522628</v>
+        <v>0.001379949964136892</v>
       </c>
       <c r="T9">
-        <v>0.0007982411860522628</v>
+        <v>0.001669646650041829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.35469334796926</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H10">
-        <v>2.35469334796926</v>
+        <v>7.449742</v>
       </c>
       <c r="I10">
-        <v>0.105343218655323</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J10">
-        <v>0.105343218655323</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.865130465246475</v>
+        <v>1.312462666666667</v>
       </c>
       <c r="N10">
-        <v>0.865130465246475</v>
+        <v>3.937388</v>
       </c>
       <c r="O10">
-        <v>0.02481687282624798</v>
+        <v>0.034229279381366</v>
       </c>
       <c r="P10">
-        <v>0.02481687282624798</v>
+        <v>0.04107776730272161</v>
       </c>
       <c r="Q10">
-        <v>2.037116951641426</v>
+        <v>3.259169417099555</v>
       </c>
       <c r="R10">
-        <v>2.037116951641426</v>
+        <v>29.332524753896</v>
       </c>
       <c r="S10">
-        <v>0.002614289260476784</v>
+        <v>0.003616257809953748</v>
       </c>
       <c r="T10">
-        <v>0.002614289260476784</v>
+        <v>0.004375428743790248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.35469334796926</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H11">
-        <v>2.35469334796926</v>
+        <v>7.449742</v>
       </c>
       <c r="I11">
-        <v>0.105343218655323</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J11">
-        <v>0.105343218655323</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.7335272665878</v>
+        <v>19.1777795</v>
       </c>
       <c r="N11">
-        <v>17.7335272665878</v>
+        <v>38.355559</v>
       </c>
       <c r="O11">
-        <v>0.5086986398176706</v>
+        <v>0.5001601867174891</v>
       </c>
       <c r="P11">
-        <v>0.5086986398176706</v>
+        <v>0.4001537891027781</v>
       </c>
       <c r="Q11">
-        <v>41.75701869066579</v>
+        <v>47.62316980262967</v>
       </c>
       <c r="R11">
-        <v>41.75701869066579</v>
+        <v>285.739018815778</v>
       </c>
       <c r="S11">
-        <v>0.05358795204397827</v>
+        <v>0.052840965808637</v>
       </c>
       <c r="T11">
-        <v>0.05358795204397827</v>
+        <v>0.04262267658984655</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.558621758147675</v>
+        <v>0.5743975</v>
       </c>
       <c r="H12">
-        <v>0.558621758147675</v>
+        <v>1.148795</v>
       </c>
       <c r="I12">
-        <v>0.02499137055995952</v>
+        <v>0.02443735465307048</v>
       </c>
       <c r="J12">
-        <v>0.02499137055995952</v>
+        <v>0.01642536727720028</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.2874215044277</v>
+        <v>16.60495066666667</v>
       </c>
       <c r="N12">
-        <v>15.2874215044277</v>
+        <v>49.814852</v>
       </c>
       <c r="O12">
-        <v>0.4385303842103676</v>
+        <v>0.4330603147186406</v>
       </c>
       <c r="P12">
-        <v>0.4385303842103676</v>
+        <v>0.5197056776409935</v>
       </c>
       <c r="Q12">
-        <v>8.539886278347977</v>
+        <v>9.537842150556667</v>
       </c>
       <c r="R12">
-        <v>8.539886278347977</v>
+        <v>57.22705290334</v>
       </c>
       <c r="S12">
-        <v>0.01095947533360272</v>
+        <v>0.01058284849694974</v>
       </c>
       <c r="T12">
-        <v>0.01095947533360272</v>
+        <v>0.008536356631299574</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.558621758147675</v>
+        <v>0.5743975</v>
       </c>
       <c r="H13">
-        <v>0.558621758147675</v>
+        <v>1.148795</v>
       </c>
       <c r="I13">
-        <v>0.02499137055995952</v>
+        <v>0.02443735465307048</v>
       </c>
       <c r="J13">
-        <v>0.02499137055995952</v>
+        <v>0.01642536727720028</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.710339134319327</v>
+        <v>0.7472513333333333</v>
       </c>
       <c r="N13">
-        <v>0.710339134319327</v>
+        <v>2.241754</v>
       </c>
       <c r="O13">
-        <v>0.02037657517341908</v>
+        <v>0.01948845883877707</v>
       </c>
       <c r="P13">
-        <v>0.02037657517341908</v>
+        <v>0.02338764916283215</v>
       </c>
       <c r="Q13">
-        <v>0.3968108960945599</v>
+        <v>0.4292192977383333</v>
       </c>
       <c r="R13">
-        <v>0.3968108960945599</v>
+        <v>2.57531578643</v>
       </c>
       <c r="S13">
-        <v>0.0005092385409017876</v>
+        <v>0.0004762463802849614</v>
       </c>
       <c r="T13">
-        <v>0.0005092385409017876</v>
+        <v>0.0003841507272498238</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.558621758147675</v>
+        <v>0.5743975</v>
       </c>
       <c r="H14">
-        <v>0.558621758147675</v>
+        <v>1.148795</v>
       </c>
       <c r="I14">
-        <v>0.02499137055995952</v>
+        <v>0.02443735465307048</v>
       </c>
       <c r="J14">
-        <v>0.02499137055995952</v>
+        <v>0.01642536727720028</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.264156984886342</v>
+        <v>0.5008306666666666</v>
       </c>
       <c r="N14">
-        <v>0.264156984886342</v>
+        <v>1.502492</v>
       </c>
       <c r="O14">
-        <v>0.007577527972294661</v>
+        <v>0.01306176034372721</v>
       </c>
       <c r="P14">
-        <v>0.007577527972294661</v>
+        <v>0.01567511679067463</v>
       </c>
       <c r="Q14">
-        <v>0.1475638393241972</v>
+        <v>0.2876758828566667</v>
       </c>
       <c r="R14">
-        <v>0.1475638393241972</v>
+        <v>1.72605529714</v>
       </c>
       <c r="S14">
-        <v>0.0001893728094840745</v>
+        <v>0.0003191948699130736</v>
       </c>
       <c r="T14">
-        <v>0.0001893728094840745</v>
+        <v>0.0002574695503998397</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.558621758147675</v>
+        <v>0.5743975</v>
       </c>
       <c r="H15">
-        <v>0.558621758147675</v>
+        <v>1.148795</v>
       </c>
       <c r="I15">
-        <v>0.02499137055995952</v>
+        <v>0.02443735465307048</v>
       </c>
       <c r="J15">
-        <v>0.02499137055995952</v>
+        <v>0.01642536727720028</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.865130465246475</v>
+        <v>1.312462666666667</v>
       </c>
       <c r="N15">
-        <v>0.865130465246475</v>
+        <v>3.937388</v>
       </c>
       <c r="O15">
-        <v>0.02481687282624798</v>
+        <v>0.034229279381366</v>
       </c>
       <c r="P15">
-        <v>0.02481687282624798</v>
+        <v>0.04107776730272161</v>
       </c>
       <c r="Q15">
-        <v>0.4832807015231019</v>
+        <v>0.7538752745766666</v>
       </c>
       <c r="R15">
-        <v>0.4832807015231019</v>
+        <v>4.52325164746</v>
       </c>
       <c r="S15">
-        <v>0.0006202076649401532</v>
+        <v>0.0008364730397614741</v>
       </c>
       <c r="T15">
-        <v>0.0006202076649401532</v>
+        <v>0.0006747174148745712</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.558621758147675</v>
+        <v>0.5743975</v>
       </c>
       <c r="H16">
-        <v>0.558621758147675</v>
+        <v>1.148795</v>
       </c>
       <c r="I16">
-        <v>0.02499137055995952</v>
+        <v>0.02443735465307048</v>
       </c>
       <c r="J16">
-        <v>0.02499137055995952</v>
+        <v>0.01642536727720028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.7335272665878</v>
+        <v>19.1777795</v>
       </c>
       <c r="N16">
-        <v>17.7335272665878</v>
+        <v>38.355559</v>
       </c>
       <c r="O16">
-        <v>0.5086986398176706</v>
+        <v>0.5001601867174891</v>
       </c>
       <c r="P16">
-        <v>0.5086986398176706</v>
+        <v>0.4001537891027781</v>
       </c>
       <c r="Q16">
-        <v>9.906334179821011</v>
+        <v>11.01566860035125</v>
       </c>
       <c r="R16">
-        <v>9.906334179821011</v>
+        <v>44.062674401405</v>
       </c>
       <c r="S16">
-        <v>0.01271307621103078</v>
+        <v>0.01222259186616123</v>
       </c>
       <c r="T16">
-        <v>0.01271307621103078</v>
+        <v>0.006572672953376475</v>
       </c>
     </row>
   </sheetData>
